--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C971DD1F-73DF-4F4E-A560-B389F203549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9017BA-299C-4ED1-8DD5-E5BD3EE93304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="870" windowWidth="13425" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,95 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자릿수에 따라서 증가
+2자리(10~90) = 10
+3자리 (100~900) = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자릿수에 따라서 증가
+2자리(10~90) = 10
+3자리 (100~900) = 101</t>
+  </si>
+  <si>
+    <t>곡괭이 자루 강도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡괭이 날 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2배씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3배씩 증가</t>
+  </si>
+  <si>
+    <t>곡괭이 자루 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장갑 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전모 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3배씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,13 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,26 +288,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}" name="표1" displayName="표1" ref="B4:E5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:E5" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}" name="표1" displayName="표1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B4:E11" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B8A30C09-B7AF-4112-A81A-50CF0C3B15B0}" name="제품명" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{99FF8269-9D94-4193-9CB5-89522EEF5090}" name="초기 가격" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{B09A8841-AD21-4F68-93A4-4B9820A7E54A}" name="가격 증가" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8C273CA2-D763-4644-B168-383B21633E0E}" name="성능 증가폭" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B8A30C09-B7AF-4112-A81A-50CF0C3B15B0}" name="제품명" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{99FF8269-9D94-4193-9CB5-89522EEF5090}" name="초기 가격" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B09A8841-AD21-4F68-93A4-4B9820A7E54A}" name="가격 증가" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8C273CA2-D763-4644-B168-383B21633E0E}" name="성능 증가폭" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21876B7F-094D-44AA-B181-C553BED28106}" name="표1_3" displayName="표1_3" ref="B4:E5" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B4:E5" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21876B7F-094D-44AA-B181-C553BED28106}" name="표1_3" displayName="표1_3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B4:E6" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D9DC5B0-D27F-4699-A4D4-4705A537FE9A}" name="제품명" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DE35930A-ADFA-4B1A-A083-1DB588EC887D}" name="초기 가격" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{957CF2BA-8A75-42BF-959C-D3AE949D54ED}" name="가격 증가" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7BA08318-096B-470C-A758-DEF216243036}" name="성능 증가폭" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D9DC5B0-D27F-4699-A4D4-4705A537FE9A}" name="제품명" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DE35930A-ADFA-4B1A-A083-1DB588EC887D}" name="초기 가격" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{957CF2BA-8A75-42BF-959C-D3AE949D54ED}" name="가격 증가" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7BA08318-096B-470C-A758-DEF216243036}" name="성능 증가폭" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,17 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,15 +613,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45C0609-728E-442C-B631-CBC166404F42}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,6 +759,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9017BA-299C-4ED1-8DD5-E5BD3EE93304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32457CFE-4384-4BCB-A11A-ACBDAAF240F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="870" windowWidth="13425" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15375" yWindow="870" windowWidth="13425" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,11 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자릿수에 따라서 증가
-2자리(10~90) = 10
-3자리 (100~900) = 101</t>
-  </si>
-  <si>
     <t>곡괭이 자루 강도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,18 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장갑 재질 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,13 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3배씩 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,11 +134,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250%</t>
+    <t>2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식 성능 상점 다 더하고 스킬 상점 다 더한 퍼센트 + 100% 으로 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50016 * 1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +252,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -288,26 +323,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}" name="표1" displayName="표1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}" name="표1" displayName="표1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B4:E11" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B8A30C09-B7AF-4112-A81A-50CF0C3B15B0}" name="제품명" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{99FF8269-9D94-4193-9CB5-89522EEF5090}" name="초기 가격" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B09A8841-AD21-4F68-93A4-4B9820A7E54A}" name="가격 증가" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8C273CA2-D763-4644-B168-383B21633E0E}" name="성능 증가폭" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B8A30C09-B7AF-4112-A81A-50CF0C3B15B0}" name="제품명" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{99FF8269-9D94-4193-9CB5-89522EEF5090}" name="초기 가격" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B09A8841-AD21-4F68-93A4-4B9820A7E54A}" name="가격 증가" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8C273CA2-D763-4644-B168-383B21633E0E}" name="성능 증가폭" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21876B7F-094D-44AA-B181-C553BED28106}" name="표1_3" displayName="표1_3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B4:E6" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21876B7F-094D-44AA-B181-C553BED28106}" name="표1_3" displayName="표1_3" ref="B4:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B4:E8" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D9DC5B0-D27F-4699-A4D4-4705A537FE9A}" name="제품명" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DE35930A-ADFA-4B1A-A083-1DB588EC887D}" name="초기 가격" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{957CF2BA-8A75-42BF-959C-D3AE949D54ED}" name="가격 증가" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7BA08318-096B-470C-A758-DEF216243036}" name="성능 증가폭" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7D9DC5B0-D27F-4699-A4D4-4705A537FE9A}" name="제품명" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DE35930A-ADFA-4B1A-A083-1DB588EC887D}" name="초기 가격" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{957CF2BA-8A75-42BF-959C-D3AE949D54ED}" name="가격 증가" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7BA08318-096B-470C-A758-DEF216243036}" name="성능 증가폭" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,15 +626,35 @@
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -613,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,97 +676,101 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -723,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45C0609-728E-442C-B631-CBC166404F42}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -761,30 +820,58 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32457CFE-4384-4BCB-A11A-ACBDAAF240F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB7B5B-5050-4448-AEE5-90506CAF7A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15375" yWindow="870" windowWidth="13425" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB7B5B-5050-4448-AEE5-90506CAF7A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C65FC-A608-488D-B02C-9BE3C0F5F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="870" windowWidth="13425" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6630" yWindow="15255" windowWidth="13425" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,12 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자릿수에 따라서 증가
-2자리(10~90) = 10
-3자리 (100~900) = 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>곡괭이 자루 강도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,42 +85,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2배씩 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>곡괭이 자루 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장갑 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전모 재질 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3배씩 증가</t>
-  </si>
-  <si>
-    <t>곡괭이 자루 재질 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장갑 재질 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발 재질 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전모 재질 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3배씩 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,7 +177,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5배씩 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +239,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,26 +623,26 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -668,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -676,21 +666,21 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -698,72 +688,72 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +775,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,58 +810,58 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C65FC-A608-488D-B02C-9BE3C0F5F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE39BC-A362-47C6-A16C-4C03A2511F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6630" yWindow="15255" windowWidth="13425" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="3780" windowWidth="13425" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45C0609-728E-442C-B631-CBC166404F42}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE39BC-A362-47C6-A16C-4C03A2511F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F659A-1B8B-44BF-8D69-3D6067EB58CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3780" windowWidth="13425" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="3780" windowWidth="13425" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
     <sheet name="SkillShop" sheetId="4" r:id="rId2"/>
+    <sheet name="StoneShop" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +187,34 @@
   </si>
   <si>
     <t>5배씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광맥 상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계별로 100%씩 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 가격 10K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,11 +275,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -313,26 +369,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}" name="표1" displayName="표1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}" name="표1" displayName="표1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B4:E11" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B8A30C09-B7AF-4112-A81A-50CF0C3B15B0}" name="제품명" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{99FF8269-9D94-4193-9CB5-89522EEF5090}" name="초기 가격" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B09A8841-AD21-4F68-93A4-4B9820A7E54A}" name="가격 증가" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{8C273CA2-D763-4644-B168-383B21633E0E}" name="성능 증가폭" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B8A30C09-B7AF-4112-A81A-50CF0C3B15B0}" name="제품명" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{99FF8269-9D94-4193-9CB5-89522EEF5090}" name="초기 가격" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B09A8841-AD21-4F68-93A4-4B9820A7E54A}" name="가격 증가" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8C273CA2-D763-4644-B168-383B21633E0E}" name="성능 증가폭" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21876B7F-094D-44AA-B181-C553BED28106}" name="표1_3" displayName="표1_3" ref="B4:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21876B7F-094D-44AA-B181-C553BED28106}" name="표1_3" displayName="표1_3" ref="B4:E8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B4:E8" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D9DC5B0-D27F-4699-A4D4-4705A537FE9A}" name="제품명" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DE35930A-ADFA-4B1A-A083-1DB588EC887D}" name="초기 가격" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{957CF2BA-8A75-42BF-959C-D3AE949D54ED}" name="가격 증가" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7BA08318-096B-470C-A758-DEF216243036}" name="성능 증가폭" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D9DC5B0-D27F-4699-A4D4-4705A537FE9A}" name="제품명" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DE35930A-ADFA-4B1A-A083-1DB588EC887D}" name="초기 가격" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{957CF2BA-8A75-42BF-959C-D3AE949D54ED}" name="가격 증가" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7BA08318-096B-470C-A758-DEF216243036}" name="성능 증가폭" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE55A4B5-801F-442D-87AF-6384E98EBA42}" name="표1_34" displayName="표1_34" ref="B4:E67" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B4:E67" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2E6222A4-ACC7-4D94-B9CB-7DC8FC77CADE}" name="제품명" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6EF53D36-379B-428D-81B1-965EF2972E4C}" name="가격 증가" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E25BFF8A-D25C-44FF-82BF-59F85F0F8203}" name="성공 확률" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2E89B490-50C3-4B1A-B76B-15E3E964B942}" name="성능" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,26 +692,26 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -774,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45C0609-728E-442C-B631-CBC166404F42}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,4 +941,72 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7F31E-0E73-4E3D-8D28-254C98D47A6F}">
+  <dimension ref="B1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F659A-1B8B-44BF-8D69-3D6067EB58CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1941966-08C9-4D97-9DCF-FA15BC2EAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3780" windowWidth="13425" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="2550" windowWidth="21120" windowHeight="17670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
     <sheet name="SkillShop" sheetId="4" r:id="rId2"/>
-    <sheet name="StoneShop" sheetId="6" r:id="rId3"/>
+    <sheet name="MetalsShop" sheetId="6" r:id="rId3"/>
+    <sheet name="Metals" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,19 +203,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돌 1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작 가격 10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게르마늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리튬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그네슘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰리브덴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나듐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니오븀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안티모니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인듐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지르코늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코발트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄탈륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텅스텐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티타늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산화디스프로슘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산화이트륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산화란탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산화세륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산화네오디뮴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루테륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라세오디뮴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테르븀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니켈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알루미늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우라늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계</t>
+  </si>
+  <si>
+    <t>4단계</t>
+  </si>
+  <si>
+    <t>5단계</t>
+  </si>
+  <si>
+    <t>6단계</t>
+  </si>
+  <si>
+    <t>7단계</t>
+  </si>
+  <si>
+    <t>8단계</t>
+  </si>
+  <si>
+    <t>9단계</t>
+  </si>
+  <si>
+    <t>10단계</t>
+  </si>
+  <si>
+    <t>6배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7배</t>
+  </si>
+  <si>
+    <t>8배</t>
+  </si>
+  <si>
+    <t>9배</t>
+  </si>
+  <si>
+    <t>10배</t>
+  </si>
+  <si>
+    <t>11배</t>
+  </si>
+  <si>
+    <t>12배</t>
+  </si>
+  <si>
+    <t>13배</t>
+  </si>
+  <si>
+    <t>14배</t>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>성능(+%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,6 +533,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,13 +663,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE55A4B5-801F-442D-87AF-6384E98EBA42}" name="표1_34" displayName="표1_34" ref="B4:E67" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B4:E67" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE55A4B5-801F-442D-87AF-6384E98EBA42}" name="표1_34" displayName="표1_34" ref="B4:E14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B4:E14" xr:uid="{05F8878D-638B-4874-BE2A-1825AE43A65C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2E6222A4-ACC7-4D94-B9CB-7DC8FC77CADE}" name="제품명" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{6EF53D36-379B-428D-81B1-965EF2972E4C}" name="가격 증가" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{E25BFF8A-D25C-44FF-82BF-59F85F0F8203}" name="성공 확률" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{2E89B490-50C3-4B1A-B76B-15E3E964B942}" name="성능" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{2E89B490-50C3-4B1A-B76B-15E3E964B942}" name="성능(+%)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{65E7563D-C205-4BBF-A235-199568E4C010}" name="표4" displayName="표4" ref="B2:C38" totalsRowShown="0">
+  <autoFilter ref="B2:C38" xr:uid="{65E7563D-C205-4BBF-A235-199568E4C010}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C38">
+    <sortCondition ref="C2:C38"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CC3D2933-2682-44F9-BBBB-90BB6ED09989}" name="광물명"/>
+    <tableColumn id="2" xr3:uid="{69C3B098-6857-4B69-BD89-FAA5B0706407}" name="가치"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -692,26 +974,26 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -945,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7F31E-0E73-4E3D-8D28-254C98D47A6F}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,7 +1252,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -984,22 +1266,160 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1009,4 +1429,324 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F02E5E0-8E8D-42FD-A7A1-3973367755C1}">
+  <dimension ref="B2:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>63111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1941966-08C9-4D97-9DCF-FA15BC2EAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DA7C1-91EB-4BAB-AD21-BCBC26C977DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="2550" windowWidth="21120" windowHeight="17670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="2550" windowWidth="21120" windowHeight="17670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,34 +391,6 @@
     <t>10단계</t>
   </si>
   <si>
-    <t>6배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7배</t>
-  </si>
-  <si>
-    <t>8배</t>
-  </si>
-  <si>
-    <t>9배</t>
-  </si>
-  <si>
-    <t>10배</t>
-  </si>
-  <si>
-    <t>11배</t>
-  </si>
-  <si>
-    <t>12배</t>
-  </si>
-  <si>
-    <t>13배</t>
-  </si>
-  <si>
-    <t>14배</t>
-  </si>
-  <si>
     <t>90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,6 +453,9 @@
   <si>
     <t>성능(+%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5배</t>
   </si>
 </sst>
 </file>
@@ -523,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,6 +508,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,26 +952,26 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1229,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7F31E-0E73-4E3D-8D28-254C98D47A6F}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1244,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1277,136 +1255,136 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
+      <c r="C7" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>92</v>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
+      <c r="C9" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
+      <c r="C10" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
+      <c r="C11" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>96</v>
+      <c r="C12" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>97</v>
+      <c r="C13" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>98</v>
+      <c r="C14" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -1435,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F02E5E0-8E8D-42FD-A7A1-3973367755C1}">
   <dimension ref="B2:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DA7C1-91EB-4BAB-AD21-BCBC26C977DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C0595-89B9-4147-A772-3B4E8DACD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="2550" windowWidth="21120" windowHeight="17670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14790" yWindow="1770" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
     <sheet name="SkillShop" sheetId="4" r:id="rId2"/>
     <sheet name="MetalsShop" sheetId="6" r:id="rId3"/>
-    <sheet name="Metals" sheetId="7" r:id="rId4"/>
+    <sheet name="Crystal" sheetId="8" r:id="rId4"/>
+    <sheet name="Metals" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +457,36 @@
   </si>
   <si>
     <t>5배</t>
+  </si>
+  <si>
+    <t>에메랄드</t>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+  </si>
+  <si>
+    <t>자수정</t>
+  </si>
+  <si>
+    <t>가넷</t>
+  </si>
+  <si>
+    <t>토파즈</t>
+  </si>
+  <si>
+    <t>황수정</t>
+  </si>
+  <si>
+    <t>사파이어</t>
+  </si>
+  <si>
+    <t>페리도트</t>
+  </si>
+  <si>
+    <t>루비</t>
+  </si>
+  <si>
+    <t>남옥</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7F31E-0E73-4E3D-8D28-254C98D47A6F}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1410,6 +1441,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13391346-057B-4007-AA0D-7E72C9E1790D}">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F02E5E0-8E8D-42FD-A7A1-3973367755C1}">
   <dimension ref="B2:C38"/>
   <sheetViews>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C0595-89B9-4147-A772-3B4E8DACD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA636974-124F-4832-A1D5-4F9EFE0E8B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="1770" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="12960" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <t>토파즈</t>
   </si>
   <si>
-    <t>황수정</t>
-  </si>
-  <si>
     <t>사파이어</t>
   </si>
   <si>
@@ -486,7 +483,12 @@
     <t>루비</t>
   </si>
   <si>
-    <t>남옥</t>
+    <t>시트린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쿠아마린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1445,7 +1447,7 @@
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N4" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1507,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1523,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA636974-124F-4832-A1D5-4F9EFE0E8B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6EED5C-ED65-45B2-BF5B-EAFC92613A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="12960" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="2670" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,42 @@
   </si>
   <si>
     <t>아쿠아마린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에메랄드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사파이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토파즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페리도트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1444,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13391346-057B-4007-AA0D-7E72C9E1790D}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N3:N4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1492,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1464,7 +1500,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1472,7 +1508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1480,7 +1516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1488,7 +1524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1496,7 +1532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1504,7 +1540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1520,7 +1556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1528,11 +1564,66 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>120</v>
       </c>
     </row>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6EED5C-ED65-45B2-BF5B-EAFC92613A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05056CB1-663D-4CDF-BE69-9A26E603F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="2670" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3300" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
   <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="R8" sqref="R7:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05056CB1-663D-4CDF-BE69-9A26E603F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337CAD8-6204-4B00-B165-EB3944D63200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3300" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="7485" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <t>성능 상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,12 @@
   <si>
     <t>페리도트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쿠아마린</t>
+  </si>
+  <si>
+    <t>시트린</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13391346-057B-4007-AA0D-7E72C9E1790D}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R7:R8"/>
+      <selection activeCell="M14" sqref="M14:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,7 +1498,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1572,57 +1578,89 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>120</v>
       </c>

--- a/Idea/Shops.xlsx
+++ b/Idea/Shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Portfolio\Game\ClickToEarn\Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337CAD8-6204-4B00-B165-EB3944D63200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055C8E1-5AED-4BF6-BEC1-A04B9115D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="7485" windowWidth="21120" windowHeight="18330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="2670" windowWidth="21120" windowHeight="18330" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceShop" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MetalsShop" sheetId="6" r:id="rId3"/>
     <sheet name="Crystal" sheetId="8" r:id="rId4"/>
     <sheet name="Metals" sheetId="7" r:id="rId5"/>
+    <sheet name="Achievements" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1488,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13391346-057B-4007-AA0D-7E72C9E1790D}">
   <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14:M23"/>
     </sheetView>
   </sheetViews>
@@ -1990,4 +1991,18 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD586BCE-94F7-43B1-89C4-3D71A1CF3974}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>